--- a/code/vocab_csv/eu-dga.xlsx
+++ b/code/vocab_csv/eu-dga.xlsx
@@ -272,7 +272,7 @@
     <t>SingleInformationPoint</t>
   </si>
   <si>
-    <t>Single Information Point</t>
+    <t>Single Information Point (SIP)</t>
   </si>
   <si>
     <t>Service responsible for receiving and transmiting requests for the re-use of public data</t>
@@ -728,7 +728,7 @@
     <t>An entity who is responsible for receiving and transmiting requests for the reuse of public data in the EU</t>
   </si>
   <si>
-    <t>eu-dga:SIP</t>
+    <t>eu-dga:SIPProvider</t>
   </si>
   <si>
     <t>DGA 8.4</t>
@@ -1147,6 +1147,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1154,9 +1157,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -5533,10 +5533,10 @@
       <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -5546,7 +5546,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="10"/>
       <c r="I2" s="25"/>
       <c r="J2" s="15"/>
@@ -5575,7 +5575,7 @@
       <c r="AE2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5591,10 +5591,10 @@
         <v>65</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="10"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="40" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="13"/>
@@ -5628,17 +5628,17 @@
       <c r="B4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="10"/>
       <c r="I4" s="25"/>
       <c r="J4" s="15"/>
@@ -5676,17 +5676,17 @@
       <c r="C5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="10"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="40" t="s">
         <v>77</v>
       </c>
       <c r="K5" s="13"/>
@@ -5720,20 +5720,20 @@
       <c r="B6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="10"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="40" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="13"/>
@@ -5875,18 +5875,18 @@
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="44" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="10"/>
       <c r="I2" s="25"/>
       <c r="J2" s="15" t="s">
@@ -5926,12 +5926,12 @@
       <c r="C3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="44" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="10"/>
       <c r="I3" s="25"/>
       <c r="J3" s="15" t="s">
@@ -5962,21 +5962,21 @@
       <c r="AE3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="44" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="10"/>
       <c r="I4" s="25"/>
       <c r="J4" s="15" t="s">
@@ -6010,18 +6010,18 @@
       <c r="A5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="44" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="10"/>
       <c r="I5" s="25"/>
       <c r="J5" s="15" t="s">
@@ -6290,17 +6290,17 @@
       <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="10"/>
       <c r="I3" s="15" t="s">
         <v>108</v>
@@ -6331,10 +6331,10 @@
       <c r="AE3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6378,10 +6378,10 @@
       <c r="AE4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -6565,17 +6565,17 @@
       <c r="B9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>120</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="10"/>
       <c r="I9" s="49" t="s">
         <v>134</v>
@@ -6653,23 +6653,23 @@
       <c r="AE10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="39" t="s">
         <v>143</v>
       </c>
       <c r="J11" s="25"/>
@@ -6745,10 +6745,10 @@
       <c r="AE12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -6761,9 +6761,9 @@
         <v>129</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="39" t="s">
         <v>153</v>
       </c>
       <c r="J13" s="25"/>
@@ -6839,25 +6839,25 @@
       <c r="AE14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>162</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="39" t="s">
         <v>163</v>
       </c>
       <c r="J15" s="25"/>
@@ -6992,13 +6992,13 @@
       <c r="A2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -7042,7 +7042,7 @@
       <c r="B3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -7092,7 +7092,7 @@
       <c r="C4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>177</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -7280,7 +7280,7 @@
       <c r="C8" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>177</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -7327,7 +7327,7 @@
       <c r="C9" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>177</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -7421,7 +7421,7 @@
       <c r="C11" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>205</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -7459,7 +7459,7 @@
       <c r="AE11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>207</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -7733,26 +7733,26 @@
       <c r="AE17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="39" t="s">
         <v>229</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>187</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="10"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="39" t="s">
         <v>231</v>
       </c>
       <c r="K18" s="10"/>
@@ -7876,17 +7876,17 @@
       <c r="B2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
         <v>238</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="53" t="s">
@@ -7922,11 +7922,11 @@
       <c r="B3" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>244</v>
       </c>
       <c r="F3" s="52" t="s">
@@ -7966,17 +7966,17 @@
       <c r="B4" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>247</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>248</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -8010,17 +8010,17 @@
       <c r="B5" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>251</v>
       </c>
       <c r="D5" s="43"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>252</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -8058,7 +8058,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>177</v>
       </c>
       <c r="F6" s="52" t="s">

--- a/code/vocab_csv/eu-dga.xlsx
+++ b/code/vocab_csv/eu-dga.xlsx
@@ -178,7 +178,7 @@
     <t>Art 2(6) Permission</t>
   </si>
   <si>
-    <t>The legal basis justfiying processing of non-personal data based on the permission of an entity</t>
+    <t>The legal basis justifying processing of non-personal data based on the permission of an entity</t>
   </si>
   <si>
     <t>dpv:NonPersonalDataLegalBasis</t>
@@ -211,7 +211,7 @@
     <t>Art 5(9) Permission for Transfer</t>
   </si>
   <si>
-    <t>The legal basis justfiying processing of non-personal data based on the permission of an entity to transfer data</t>
+    <t>The legal basis justifying processing of non-personal data based on the permission of an entity to transfer data</t>
   </si>
   <si>
     <r>
@@ -275,7 +275,7 @@
     <t>Single Information Point (SIP)</t>
   </si>
   <si>
-    <t>Service responsible for receiving and transmiting requests for the re-use of public data</t>
+    <t>Service responsible for receiving and transmitting requests for the re-use of public data</t>
   </si>
   <si>
     <t>dpv:Service</t>
@@ -713,7 +713,7 @@
     <t>Single Information Point Provider</t>
   </si>
   <si>
-    <t>An entity who is responsible for receiving and transmiting requests for the reuse of public data</t>
+    <t>An entity who is responsible for receiving and transmitting requests for the reuse of public data</t>
   </si>
   <si>
     <t>DGA 8</t>
@@ -725,7 +725,7 @@
     <t>EU Single Information Point Provider</t>
   </si>
   <si>
-    <t>An entity who is responsible for receiving and transmiting requests for the reuse of public data in the EU</t>
+    <t>An entity who is responsible for receiving and transmitting requests for the reuse of public data in the EU</t>
   </si>
   <si>
     <t>eu-dga:SIPProvider</t>
@@ -740,7 +740,7 @@
     <t>Local Single Information Point Provider</t>
   </si>
   <si>
-    <t>A local entity who is responsible for receiving and transmiting requests for the reuse of public data</t>
+    <t>A local entity who is responsible for receiving and transmitting requests for the reuse of public data</t>
   </si>
   <si>
     <t>NationalSIPProvider</t>
@@ -749,7 +749,7 @@
     <t>National Single Information Point Provider</t>
   </si>
   <si>
-    <t>A national entity who is responsible for receiving and transmiting requests for the reuse of public data</t>
+    <t>A national entity who is responsible for receiving and transmitting requests for the reuse of public data</t>
   </si>
   <si>
     <t>RegionalSIPProvider</t>
@@ -758,7 +758,7 @@
     <t>Regional Single Information Point Provider</t>
   </si>
   <si>
-    <t>A regional entity who is responsible for receiving and transmiting requests for the reuse of public data</t>
+    <t>A regional entity who is responsible for receiving and transmitting requests for the reuse of public data</t>
   </si>
   <si>
     <t>SectorialSIPProvider</t>
@@ -767,7 +767,7 @@
     <t>Sectorial Single Information Point Provider</t>
   </si>
   <si>
-    <t>An entity who is responsible for receiving and transmiting requests for the reuse of public data for a particular sector</t>
+    <t>An entity who is responsible for receiving and transmitting requests for the reuse of public data for a particular sector</t>
   </si>
   <si>
     <t>DataAltruismAuthority</t>
@@ -1038,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1088,7 +1088,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1150,13 +1150,16 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1188,11 +1191,11 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -5628,7 +5631,7 @@
       <c r="B4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -5720,7 +5723,7 @@
       <c r="B6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -5761,23 +5764,23 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7">
-      <c r="J7" s="41"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="21"/>
       <c r="O7" s="28"/>
     </row>
     <row r="8">
-      <c r="J8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="21"/>
       <c r="O8" s="28"/>
     </row>
     <row r="9">
       <c r="B9" s="32"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="21"/>
       <c r="O9" s="28"/>
     </row>
     <row r="10">
-      <c r="J10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="21"/>
       <c r="O10" s="28"/>
     </row>
@@ -5878,11 +5881,11 @@
       <c r="B2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="39"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="10"/>
@@ -5894,7 +5897,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -5923,11 +5926,11 @@
       <c r="B3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="10"/>
@@ -5939,7 +5942,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="10"/>
@@ -5968,11 +5971,11 @@
       <c r="B4" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="39"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="10"/>
@@ -5984,7 +5987,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="10"/>
@@ -6013,11 +6016,11 @@
       <c r="B5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="10"/>
@@ -6029,7 +6032,7 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="10"/>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="11">
       <c r="B11" s="32"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="21"/>
       <c r="O11" s="28"/>
     </row>
@@ -6255,13 +6258,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="25"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -6290,7 +6293,7 @@
       <c r="B3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -6302,13 +6305,13 @@
       <c r="F3" s="10"/>
       <c r="G3" s="39"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="25"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="9"/>
@@ -6337,7 +6340,7 @@
       <c r="B4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -6349,13 +6352,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="25"/>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="9"/>
@@ -6384,7 +6387,7 @@
       <c r="B5" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -6396,13 +6399,13 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="25"/>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="9"/>
@@ -6443,13 +6446,13 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="25"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="9"/>
@@ -6488,13 +6491,13 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="25"/>
       <c r="K7" s="13"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="10"/>
@@ -6517,28 +6520,28 @@
       <c r="AE7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="49" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="46" t="s">
+      <c r="J8" s="47" t="s">
         <v>130</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
@@ -6565,7 +6568,7 @@
       <c r="B9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="41" t="s">
         <v>133</v>
       </c>
       <c r="D9" s="39" t="s">
@@ -6577,13 +6580,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="39"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="25"/>
       <c r="K9" s="13"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="9"/>
@@ -6624,13 +6627,13 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="25"/>
       <c r="K10" s="13"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="10"/>
@@ -6659,7 +6662,7 @@
       <c r="B11" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="39"/>
@@ -6669,13 +6672,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="39"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="25"/>
       <c r="K11" s="13"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="10"/>
@@ -6716,13 +6719,13 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="25"/>
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="10"/>
@@ -6754,7 +6757,7 @@
       <c r="C13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -6763,13 +6766,13 @@
       <c r="F13" s="10"/>
       <c r="G13" s="39"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="25"/>
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="10"/>
@@ -6810,13 +6813,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="25"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="10"/>
@@ -6845,7 +6848,7 @@
       <c r="B15" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>161</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -6857,10 +6860,10 @@
       <c r="F15" s="10"/>
       <c r="G15" s="39"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="25"/>
       <c r="K15" s="13"/>
       <c r="L15" s="10"/>
       <c r="M15" s="11" t="s">
@@ -6995,7 +6998,7 @@
       <c r="B2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="39" t="s">
@@ -7013,7 +7016,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="10"/>
@@ -7042,7 +7045,7 @@
       <c r="B3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -7060,7 +7063,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="10"/>
@@ -7089,7 +7092,7 @@
       <c r="B4" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>176</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -7107,7 +7110,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="10"/>
@@ -7136,7 +7139,7 @@
       <c r="B5" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="52" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -7154,7 +7157,7 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="10"/>
@@ -7183,7 +7186,7 @@
       <c r="B6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -7201,7 +7204,7 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="10"/>
@@ -7230,7 +7233,7 @@
       <c r="B7" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>191</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -7248,7 +7251,7 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="10"/>
@@ -7277,7 +7280,7 @@
       <c r="B8" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>194</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -7295,7 +7298,7 @@
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="10"/>
@@ -7324,7 +7327,7 @@
       <c r="B9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="52" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="37" t="s">
@@ -7342,7 +7345,7 @@
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="10"/>
@@ -7371,7 +7374,7 @@
       <c r="B10" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="52" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -7389,7 +7392,7 @@
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="10"/>
@@ -7418,7 +7421,7 @@
       <c r="B11" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -7436,7 +7439,7 @@
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="10"/>
@@ -7465,7 +7468,7 @@
       <c r="B12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="38" t="s">
         <v>209</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -7483,7 +7486,7 @@
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="10"/>
@@ -7512,7 +7515,7 @@
       <c r="B13" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>213</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -7530,7 +7533,7 @@
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="10"/>
@@ -7559,7 +7562,7 @@
       <c r="B14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="38" t="s">
         <v>218</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -7575,7 +7578,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="10"/>
@@ -7604,7 +7607,7 @@
       <c r="B15" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -7620,7 +7623,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="10"/>
@@ -7649,7 +7652,7 @@
       <c r="B16" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="38" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -7665,7 +7668,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="10"/>
@@ -7694,7 +7697,7 @@
       <c r="B17" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="38" t="s">
         <v>227</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -7710,7 +7713,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="10"/>
@@ -7739,7 +7742,7 @@
       <c r="B18" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -7757,7 +7760,7 @@
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="46" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="10"/>
@@ -7847,7 +7850,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -7856,7 +7859,7 @@
       <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -7876,28 +7879,28 @@
       <c r="B2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>237</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="38" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="54" t="s">
         <v>168</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>240</v>
       </c>
       <c r="O2" s="10"/>
@@ -7922,14 +7925,14 @@
       <c r="B3" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="38" t="s">
         <v>239</v>
       </c>
       <c r="G3" s="10"/>
@@ -7938,10 +7941,10 @@
       <c r="J3" s="10"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="55" t="s">
         <v>240</v>
       </c>
       <c r="O3" s="10"/>
@@ -7966,14 +7969,14 @@
       <c r="B4" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="38" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="39"/>
@@ -7982,10 +7985,10 @@
       <c r="J4" s="10"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="55" t="s">
         <v>240</v>
       </c>
       <c r="O4" s="10"/>
@@ -8010,14 +8013,14 @@
       <c r="B5" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="38" t="s">
         <v>239</v>
       </c>
       <c r="G5" s="39"/>
@@ -8026,10 +8029,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="55" t="s">
         <v>240</v>
       </c>
       <c r="O5" s="9"/>
@@ -8061,7 +8064,7 @@
       <c r="E6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="38" t="s">
         <v>239</v>
       </c>
       <c r="G6" s="10"/>
@@ -8070,10 +8073,10 @@
       <c r="J6" s="10"/>
       <c r="K6" s="13"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="55" t="s">
         <v>240</v>
       </c>
       <c r="O6" s="10"/>
@@ -8092,17 +8095,17 @@
       <c r="AB6" s="25"/>
     </row>
     <row r="7">
-      <c r="C7" s="55"/>
+      <c r="C7" s="56"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
     <row r="8">
-      <c r="C8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
     <row r="9">
-      <c r="C9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
@@ -8139,37 +8142,37 @@
       <c r="O11" s="27"/>
     </row>
     <row r="12">
-      <c r="C12" s="55"/>
+      <c r="C12" s="56"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
     <row r="13">
-      <c r="C13" s="55"/>
+      <c r="C13" s="56"/>
     </row>
     <row r="14">
-      <c r="C14" s="55"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15">
-      <c r="C15" s="55"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16">
-      <c r="C16" s="55"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17">
       <c r="C17" s="33"/>
     </row>
     <row r="18">
-      <c r="C18" s="55"/>
+      <c r="C18" s="56"/>
     </row>
     <row r="19">
-      <c r="C19" s="55"/>
+      <c r="C19" s="56"/>
     </row>
     <row r="20">
       <c r="A20" s="33"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="56"/>
     </row>
     <row r="21">
-      <c r="C21" s="55"/>
+      <c r="C21" s="56"/>
     </row>
     <row r="22">
       <c r="C22" s="33"/>
@@ -8178,7 +8181,7 @@
       <c r="C23" s="33"/>
     </row>
     <row r="24">
-      <c r="C24" s="55"/>
+      <c r="C24" s="56"/>
     </row>
     <row r="25">
       <c r="C25" s="31"/>

--- a/code/vocab_csv/eu-dga.xlsx
+++ b/code/vocab_csv/eu-dga.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="336">
   <si>
     <t>Term</t>
   </si>
@@ -310,15 +310,27 @@
     <t>DGA 9-3</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>DGARightsImpact</t>
   </si>
   <si>
+    <t>DGA Rights Impact</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on one or more rights defined by DGA</t>
+  </si>
+  <si>
     <t>risk:RightsImpact</t>
   </si>
   <si>
     <t>risk:RiskConcept</t>
   </si>
   <si>
+    <t>R,C,I</t>
+  </si>
+  <si>
     <t>A27-Impact</t>
   </si>
   <si>
@@ -667,6 +679,30 @@
     <t>DGA 31.5</t>
   </si>
   <si>
+    <t>EthicsCouncil</t>
+  </si>
+  <si>
+    <t>Ethics Council</t>
+  </si>
+  <si>
+    <t>A council that provides suggestions, advice, or recommendations in matters related to Ethics</t>
+  </si>
+  <si>
+    <t>DGA R46</t>
+  </si>
+  <si>
+    <t>Georg P. Krog</t>
+  </si>
+  <si>
+    <t>EthicsBoard</t>
+  </si>
+  <si>
+    <t>Ethics Board</t>
+  </si>
+  <si>
+    <t>A board that has decision-making powers in matters related to Ethics</t>
+  </si>
+  <si>
     <t>DataReuseAssistant</t>
   </si>
   <si>
@@ -869,6 +905,78 @@
   </si>
   <si>
     <t>DGA 23</t>
+  </si>
+  <si>
+    <t>PublicSectorBody</t>
+  </si>
+  <si>
+    <t>Public Sector Body</t>
+  </si>
+  <si>
+    <t>‘Public Sector Body’ means the State, regional or local authorities, bodies governed by public law or associations formed by one or more such authorities, or one or more such bodies governed by public law</t>
+  </si>
+  <si>
+    <t>dpv:PublicSectorBody</t>
+  </si>
+  <si>
+    <t>DGA 2.17</t>
+  </si>
+  <si>
+    <t>PublicLawGovernedBody</t>
+  </si>
+  <si>
+    <t>Public Law Governed Body</t>
+  </si>
+  <si>
+    <t>Public Law Governed Body' or 'Body Governed by Public Law' means bodies that have the following characteristics: (a) they are established for the specific purpose of meeting needs in the general interest, and do not have an industrial or commercial character; (b) they have legal personality; (c) they are financed, for the most part, by the State, regional or local authorities, or other bodies governed by public law, are subject to management supervision by those authorities or bodies, or have an administrative, managerial or supervisory board, more than half of whose members are appointed by the State, regional or local authorities, or by other bodies governed by public law;</t>
+  </si>
+  <si>
+    <t>DGA 2.18</t>
+  </si>
+  <si>
+    <t>LegalRepresentative</t>
+  </si>
+  <si>
+    <t>Legal Representative</t>
+  </si>
+  <si>
+    <t>Legal Representative' means a natural or legal person established in the Union explicitly designated to act on behalf of a data intermediation services provider or an entity that collects data for objectives of general interest made available by natural or legal persons on the basis of data altruism not established in the Union, which may be addressed by the competent authorities for data intermediation services and the competent authorities for the registration of data altruism organisations in addition to or instead of the data intermediation services provider or entity with regard to the obligations under this Regulation, including with regard to initiating enforcement proceedings against a non-compliant data intermediation services provider or entity not established in the Union</t>
+  </si>
+  <si>
+    <t>dpv:Representative</t>
+  </si>
+  <si>
+    <t>DGA 2.21</t>
+  </si>
+  <si>
+    <t>Undertaking</t>
+  </si>
+  <si>
+    <t>An undertaking is an entity engaged in an economic activity (i.e. offering goods or services on a given market), regardless of its legal status and the way in which it is financed</t>
+  </si>
+  <si>
+    <t>Glossary of terms used in EU competition policy (Antitrust and control of concentrations) 2002</t>
+  </si>
+  <si>
+    <t>PublicUndertaking</t>
+  </si>
+  <si>
+    <t>Public Undertaking</t>
+  </si>
+  <si>
+    <t>Public Undertaking' means any undertaking over which the public sector bodies may exercise directly or indirectly a dominant influence by virtue of their ownership of it, their financial participation therein, or the rules which govern it; for the purposes of this definition, a dominant influence on the part of the public sector bodies shall be presumed in any of the following cases in which those bodies, directly or indirectly: (a) hold the majority of the undertaking’s subscribed capital; (b) control the majority of the votes attaching to shares issued by the undertaking; (c) can appoint more than half of the undertaking’s administrative, management or supervisory body;</t>
+  </si>
+  <si>
+    <t>eu-dga:Undertaking</t>
+  </si>
+  <si>
+    <t>OnePersonUndertaking</t>
+  </si>
+  <si>
+    <t>One-Person Undertaking</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
   <si>
     <t>domain</t>
@@ -1194,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1328,11 +1436,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1364,6 +1481,9 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1382,7 +1502,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5807,108 +5927,126 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="34"/>
+      <c r="C2" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="51">
+        <v>45627.0</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="33">
+      <c r="L3" s="33">
         <v>45643.0</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -5924,42 +6062,46 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
-      <c r="AF3" s="34"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="22">
+      <c r="L4" s="22">
         <v>45643.0</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36"/>
+      <c r="N4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="O4" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
@@ -5977,42 +6119,46 @@
       <c r="AD4" s="36"/>
       <c r="AE4" s="36"/>
       <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="13">
+      <c r="L5" s="13">
         <v>45336.0</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="O5" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -6028,43 +6174,47 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
-      <c r="AF5" s="34"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="39">
+      <c r="L6" s="39">
         <v>45643.0</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="39"/>
+      <c r="N6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="O6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="34"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
@@ -6081,6 +6231,8 @@
       <c r="AD6" s="34"/>
       <c r="AE6" s="34"/>
       <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
     </row>
     <row r="7">
       <c r="A7" s="37"/>
@@ -6092,13 +6244,13 @@
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
-      <c r="P7" s="34"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -6115,6 +6267,8 @@
       <c r="AD7" s="34"/>
       <c r="AE7" s="34"/>
       <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
     </row>
     <row r="8">
       <c r="A8" s="37"/>
@@ -6126,13 +6280,13 @@
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
-      <c r="P8" s="34"/>
+      <c r="P8" s="37"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -6149,6 +6303,8 @@
       <c r="AD8" s="34"/>
       <c r="AE8" s="34"/>
       <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
     </row>
     <row r="9">
       <c r="A9" s="37"/>
@@ -6160,13 +6316,13 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
-      <c r="P9" s="34"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -6183,6 +6339,8 @@
       <c r="AD9" s="34"/>
       <c r="AE9" s="34"/>
       <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
     </row>
     <row r="10">
       <c r="A10" s="37"/>
@@ -6194,13 +6352,13 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
-      <c r="P10" s="34"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -6217,6 +6375,8 @@
       <c r="AD10" s="34"/>
       <c r="AE10" s="34"/>
       <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="37"/>
@@ -6228,13 +6388,13 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="34"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -6251,6 +6411,8 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
     </row>
     <row r="12">
       <c r="A12" s="37"/>
@@ -6262,13 +6424,13 @@
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
-      <c r="P12" s="34"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
@@ -6285,6 +6447,8 @@
       <c r="AD12" s="34"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
     </row>
     <row r="13">
       <c r="A13" s="37"/>
@@ -6296,13 +6460,13 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="37"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
-      <c r="P13" s="34"/>
+      <c r="P13" s="37"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
@@ -6319,6 +6483,8 @@
       <c r="AD13" s="34"/>
       <c r="AE13" s="34"/>
       <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
     </row>
     <row r="14">
       <c r="A14" s="37"/>
@@ -6330,13 +6496,13 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
-      <c r="P14" s="34"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
@@ -6353,6 +6519,8 @@
       <c r="AD14" s="34"/>
       <c r="AE14" s="34"/>
       <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
     </row>
     <row r="15">
       <c r="C15" s="41"/>
@@ -6363,53 +6531,53 @@
     </row>
     <row r="17">
       <c r="B17" s="42"/>
-      <c r="K17" s="22"/>
-      <c r="N17" s="43"/>
+      <c r="L17" s="22"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18">
       <c r="A18" s="44"/>
       <c r="B18" s="42"/>
       <c r="D18" s="43"/>
-      <c r="K18" s="45"/>
-      <c r="N18" s="43"/>
+      <c r="L18" s="45"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19">
       <c r="B19" s="42"/>
       <c r="D19" s="43"/>
-      <c r="K19" s="45"/>
-      <c r="N19" s="43"/>
+      <c r="L19" s="45"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20">
       <c r="B20" s="42"/>
-      <c r="K20" s="45"/>
-      <c r="N20" s="43"/>
+      <c r="L20" s="45"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21">
       <c r="B21" s="46"/>
-      <c r="K21" s="45"/>
-      <c r="N21" s="43"/>
+      <c r="L21" s="45"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22">
       <c r="B22" s="46"/>
-      <c r="K22" s="45"/>
-      <c r="N22" s="43"/>
+      <c r="L22" s="45"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="K23" s="45"/>
-      <c r="N23" s="43"/>
+      <c r="L23" s="45"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24">
       <c r="B24" s="42"/>
-      <c r="K24" s="45"/>
-      <c r="N24" s="43"/>
+      <c r="L24" s="45"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25">
       <c r="B25" s="46"/>
-      <c r="K25" s="45"/>
-      <c r="N25" s="43"/>
+      <c r="L25" s="45"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26">
       <c r="B26" s="46"/>
@@ -9340,19 +9508,19 @@
       <c r="C1001" s="41"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M5">
+  <conditionalFormatting sqref="N3:N5">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$M2="changed"</formula>
+      <formula>$N3="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF31">
+  <conditionalFormatting sqref="A2:AH31">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$M2="accepted"</formula>
+      <formula>$N2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF31">
+  <conditionalFormatting sqref="A2:AH31">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$M2="proposed"</formula>
+      <formula>$N2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -9424,22 +9592,22 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="10"/>
       <c r="I2" s="36"/>
       <c r="J2" s="16"/>
@@ -9472,27 +9640,27 @@
       <c r="AE2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
-        <v>96</v>
+      <c r="A3" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="10"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="52" t="s">
-        <v>99</v>
+      <c r="J3" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="K3" s="13">
         <v>45336.0</v>
@@ -9524,22 +9692,22 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="10"/>
       <c r="I4" s="36"/>
       <c r="J4" s="16"/>
@@ -9573,26 +9741,26 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="10"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="52" t="s">
-        <v>107</v>
+      <c r="J5" s="55" t="s">
+        <v>111</v>
       </c>
       <c r="K5" s="13">
         <v>45336.0</v>
@@ -9624,26 +9792,26 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="10"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="52" t="s">
-        <v>111</v>
+      <c r="J6" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="K6" s="13">
         <v>45336.0</v>
@@ -9674,23 +9842,23 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7">
-      <c r="J7" s="54"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="22"/>
       <c r="O7" s="38"/>
     </row>
     <row r="8">
-      <c r="J8" s="54"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="22"/>
       <c r="O8" s="38"/>
     </row>
     <row r="9">
       <c r="B9" s="42"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="22"/>
       <c r="O9" s="38"/>
     </row>
     <row r="10">
-      <c r="J10" s="54"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="22"/>
       <c r="O10" s="38"/>
     </row>
@@ -9786,30 +9954,30 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="57" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="10"/>
       <c r="I2" s="36"/>
       <c r="J2" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K2" s="13">
         <v>45336.0</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -9835,30 +10003,30 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="57" t="s">
-        <v>115</v>
-      </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="10"/>
       <c r="I3" s="36"/>
       <c r="J3" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K3" s="13">
         <v>45336.0</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -9883,31 +10051,31 @@
       <c r="AE3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="57" t="s">
-        <v>115</v>
+      <c r="A4" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="10"/>
       <c r="I4" s="36"/>
       <c r="J4" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K4" s="13">
         <v>45336.0</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -9933,30 +10101,30 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="57" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="10"/>
       <c r="I5" s="36"/>
       <c r="J5" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K5" s="13">
         <v>45336.0</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -10010,7 +10178,7 @@
     </row>
     <row r="11">
       <c r="B11" s="42"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="22"/>
       <c r="O11" s="38"/>
     </row>
@@ -10167,32 +10335,32 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="36"/>
       <c r="J2" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K2" s="13">
         <v>45336.0</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -10218,32 +10386,32 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="10"/>
       <c r="I3" s="36"/>
       <c r="J3" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K3" s="13">
         <v>45336.0</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -10268,33 +10436,33 @@
       <c r="AE3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="36"/>
       <c r="J4" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K4" s="13">
         <v>45336.0</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -10319,33 +10487,33 @@
       <c r="AE4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>145</v>
+      <c r="A5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="36"/>
       <c r="J5" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K5" s="13">
         <v>45336.0</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -10371,32 +10539,32 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="36"/>
       <c r="J6" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K6" s="13">
         <v>45336.0</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -10422,30 +10590,30 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="36"/>
       <c r="J7" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K7" s="13">
         <v>45336.0</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="11" t="s">
@@ -10470,26 +10638,26 @@
       <c r="AE7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>159</v>
+      <c r="A8" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>163</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="61"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="59"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
@@ -10511,32 +10679,32 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="10"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="62" t="s">
-        <v>163</v>
+      <c r="J9" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="K9" s="13">
         <v>45336.0</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="11" t="s">
@@ -10562,32 +10730,32 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>170</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="36"/>
       <c r="J10" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K10" s="13">
         <v>45336.0</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -10612,31 +10780,31 @@
       <c r="AE10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="51"/>
+      <c r="A11" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="10"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="51" t="s">
-        <v>172</v>
+      <c r="J11" s="54" t="s">
+        <v>176</v>
       </c>
       <c r="K11" s="13">
         <v>45336.0</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="11" t="s">
@@ -10662,32 +10830,32 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="36"/>
       <c r="J12" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K12" s="13">
         <v>45336.0</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -10712,33 +10880,33 @@
       <c r="AE12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>179</v>
+      <c r="A13" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>185</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="10"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="51" t="s">
-        <v>182</v>
+      <c r="J13" s="54" t="s">
+        <v>186</v>
       </c>
       <c r="K13" s="13">
         <v>45336.0</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="11" t="s">
@@ -10764,32 +10932,32 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="36"/>
       <c r="J14" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K14" s="13">
         <v>45336.0</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="11" t="s">
@@ -10814,27 +10982,27 @@
       <c r="AE14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>191</v>
+      <c r="A15" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>195</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="10"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="51" t="s">
-        <v>192</v>
+      <c r="J15" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="K15" s="13">
         <v>45336.0</v>
@@ -10868,10 +11036,44 @@
       <c r="K16" s="22"/>
     </row>
     <row r="17">
-      <c r="K17" s="22"/>
+      <c r="A17" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="22">
+        <v>45658.0</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="18">
-      <c r="K18" s="22"/>
+      <c r="A18" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="22">
+        <v>45658.0</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19">
       <c r="K19" s="22"/>
@@ -10969,32 +11171,32 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>208</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="36"/>
       <c r="J2" s="9" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K2" s="13">
         <v>45336.0</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -11020,32 +11222,32 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>200</v>
+        <v>211</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>212</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="36"/>
       <c r="J3" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K3" s="13">
         <v>45336.0</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -11071,32 +11273,32 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>206</v>
+        <v>216</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="36"/>
       <c r="J4" s="10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K4" s="13">
         <v>45336.0</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -11122,32 +11324,32 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="36"/>
       <c r="J5" s="10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K5" s="13">
         <v>45336.0</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -11173,32 +11375,32 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="36"/>
       <c r="J6" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K6" s="13">
         <v>45336.0</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -11224,32 +11426,32 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>220</v>
+        <v>231</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>232</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="36"/>
       <c r="J7" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K7" s="13">
         <v>45336.0</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="11" t="s">
@@ -11275,32 +11477,32 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>206</v>
+        <v>234</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="36"/>
       <c r="J8" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K8" s="13">
         <v>45336.0</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="11" t="s">
@@ -11326,32 +11528,32 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>206</v>
+        <v>237</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="36"/>
       <c r="J9" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K9" s="13">
         <v>45336.0</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="11" t="s">
@@ -11377,32 +11579,32 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>241</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="36"/>
       <c r="J10" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="K10" s="13">
         <v>45336.0</v>
       </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -11428,32 +11630,32 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>234</v>
+        <v>244</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>246</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="36"/>
       <c r="J11" s="10" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K11" s="13">
         <v>45336.0</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="11" t="s">
@@ -11478,33 +11680,33 @@
       <c r="AE11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>236</v>
+      <c r="A12" s="54" t="s">
+        <v>248</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>238</v>
+        <v>249</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="36"/>
       <c r="J12" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K12" s="13">
         <v>45336.0</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -11530,32 +11732,32 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>242</v>
+        <v>253</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>254</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="36"/>
       <c r="J13" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K13" s="13">
         <v>45336.0</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="11" t="s">
@@ -11581,19 +11783,19 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>247</v>
+        <v>258</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -11604,7 +11806,7 @@
         <v>45336.0</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="11" t="s">
@@ -11630,19 +11832,19 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>250</v>
+        <v>261</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>262</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -11653,7 +11855,7 @@
         <v>45336.0</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="11" t="s">
@@ -11679,19 +11881,19 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>265</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -11702,7 +11904,7 @@
         <v>45336.0</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="11" t="s">
@@ -11728,19 +11930,19 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -11751,7 +11953,7 @@
         <v>45336.0</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -11776,33 +11978,33 @@
       <c r="AE17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>216</v>
+      <c r="A18" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="10"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="51" t="s">
-        <v>260</v>
+      <c r="J18" s="54" t="s">
+        <v>272</v>
       </c>
       <c r="K18" s="13">
         <v>45336.0</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N18" s="11" t="s">
@@ -11827,20 +12029,245 @@
       <c r="AE18" s="10"/>
     </row>
     <row r="19">
-      <c r="K19" s="13"/>
+      <c r="A19" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45658.0</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="13">
+        <v>45658.0</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="13">
+        <v>45658.0</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K22" s="22">
+        <v>45658.0</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="13">
+        <v>45658.0</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="22">
+        <v>45658.0</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AE43">
+  <conditionalFormatting sqref="A2:AE44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AE43">
+  <conditionalFormatting sqref="A2:AE44">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AE43">
+  <conditionalFormatting sqref="A2:AE44">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -11883,13 +12310,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -11897,7 +12324,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -11906,7 +12333,7 @@
       <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="47" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -11921,35 +12348,35 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="51"/>
+        <v>301</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="54"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="35" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K2" s="13">
         <v>45336.0</v>
       </c>
       <c r="L2" s="14"/>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O2" s="10"/>
@@ -11969,20 +12396,20 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>268</v>
+        <v>306</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -11992,10 +12419,10 @@
         <v>45336.0</v>
       </c>
       <c r="L3" s="14"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O3" s="10"/>
@@ -12015,22 +12442,22 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="51"/>
+        <v>310</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -12038,10 +12465,10 @@
         <v>45336.0</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="10"/>
@@ -12061,22 +12488,22 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="51"/>
+        <v>314</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="54"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -12084,10 +12511,10 @@
         <v>45336.0</v>
       </c>
       <c r="L5" s="14"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O5" s="9"/>
@@ -12107,20 +12534,20 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>268</v>
+      <c r="E6" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -12130,10 +12557,10 @@
         <v>45336.0</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="70" t="s">
         <v>58</v>
       </c>
       <c r="O6" s="10"/>
@@ -12152,17 +12579,17 @@
       <c r="AB6" s="36"/>
     </row>
     <row r="7">
-      <c r="C7" s="67"/>
+      <c r="C7" s="71"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
     <row r="8">
-      <c r="C8" s="67"/>
+      <c r="C8" s="71"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
     <row r="9">
-      <c r="C9" s="67"/>
+      <c r="C9" s="71"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
@@ -12199,37 +12626,37 @@
       <c r="O11" s="37"/>
     </row>
     <row r="12">
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
     <row r="13">
-      <c r="C13" s="67"/>
+      <c r="C13" s="71"/>
     </row>
     <row r="14">
-      <c r="C14" s="67"/>
+      <c r="C14" s="71"/>
     </row>
     <row r="15">
-      <c r="C15" s="67"/>
+      <c r="C15" s="71"/>
     </row>
     <row r="16">
-      <c r="C16" s="67"/>
+      <c r="C16" s="71"/>
     </row>
     <row r="17">
       <c r="C17" s="43"/>
     </row>
     <row r="18">
-      <c r="C18" s="67"/>
+      <c r="C18" s="71"/>
     </row>
     <row r="19">
-      <c r="C19" s="67"/>
+      <c r="C19" s="71"/>
     </row>
     <row r="20">
       <c r="A20" s="43"/>
-      <c r="C20" s="67"/>
+      <c r="C20" s="71"/>
     </row>
     <row r="21">
-      <c r="C21" s="67"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22">
       <c r="C22" s="43"/>
@@ -12238,7 +12665,7 @@
       <c r="C23" s="43"/>
     </row>
     <row r="24">
-      <c r="C24" s="67"/>
+      <c r="C24" s="71"/>
     </row>
     <row r="25">
       <c r="C25" s="41"/>
@@ -15230,12 +15657,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="11"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -15243,7 +15670,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="58"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
@@ -15265,17 +15692,17 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>287</v>
+        <v>322</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>323</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="11" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -15286,11 +15713,11 @@
         <v>45494.0</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="10"/>
@@ -15312,19 +15739,19 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>293</v>
+        <v>327</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>329</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -15335,11 +15762,11 @@
         <v>45494.0</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
@@ -15360,20 +15787,20 @@
       <c r="AE4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>294</v>
+      <c r="A5" s="52" t="s">
+        <v>330</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>296</v>
+        <v>331</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>332</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -15384,11 +15811,11 @@
         <v>45494.0</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
@@ -15410,19 +15837,19 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>299</v>
+        <v>334</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -15433,11 +15860,11 @@
         <v>45494.0</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="61" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="10"/>
@@ -15460,7 +15887,7 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
@@ -15469,7 +15896,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="13"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
@@ -15492,8 +15919,8 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -15501,7 +15928,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="13"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
@@ -15524,8 +15951,8 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -15533,7 +15960,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="13"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="58"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="11"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -15556,7 +15983,7 @@
     <row r="10">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
@@ -15565,7 +15992,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="13"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="11"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -15588,8 +16015,8 @@
     <row r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -15597,7 +16024,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="13"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="58"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="11"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -15618,9 +16045,9 @@
       <c r="AE11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="51"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
@@ -15629,7 +16056,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="58"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="11"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -15652,7 +16079,7 @@
     <row r="13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
@@ -15661,7 +16088,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="11"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -15684,7 +16111,7 @@
     <row r="14">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
@@ -15693,7 +16120,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="13"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="58"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="11"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -15716,7 +16143,7 @@
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="50"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
@@ -15725,7 +16152,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="13"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="58"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="11"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -15748,7 +16175,7 @@
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="50"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="10"/>
@@ -15757,7 +16184,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="13"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="11"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -15780,7 +16207,7 @@
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="50"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="10"/>
@@ -15789,7 +16216,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="13"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="11"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -15810,18 +16237,18 @@
       <c r="AE17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="11"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="10"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="13"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="58"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="11"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>

--- a/code/vocab_csv/eu-dga.xlsx
+++ b/code/vocab_csv/eu-dga.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="336">
   <si>
     <t>Term</t>
   </si>
@@ -325,7 +325,7 @@
     <t>risk:RightsImpact</t>
   </si>
   <si>
-    <t>risk:RiskConcept</t>
+    <t>dpv:RiskConcept</t>
   </si>
   <si>
     <t>R,C,I</t>
@@ -2485,9 +2485,7 @@
       <c r="K4" s="22">
         <v>45643.0</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>21</v>
-      </c>
+      <c r="L4" s="36"/>
       <c r="M4" s="35" t="s">
         <v>21</v>
       </c>
@@ -5971,7 +5969,7 @@
       <c r="D2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="50"/>

--- a/code/vocab_csv/eu-dga.xlsx
+++ b/code/vocab_csv/eu-dga.xlsx
@@ -562,7 +562,7 @@
     <t>Data Asset List</t>
   </si>
   <si>
-    <t>Searchable asset list which contains available data resources including their data format and size and the conditions for their re-use</t>
+    <t>Searchable asset list which contains available data resources including their data format and size and the conditions for their re-use</t>
   </si>
   <si>
     <t>DGA 8.2</t>
@@ -10593,7 +10593,7 @@
       <c r="B7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="10"/>
